--- a/Doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/Doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="953" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79E3CBA4-B1D2-44CD-94CF-EBCFCBA3D4FA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC23A05-EA0C-4ACE-8124-5405856E7EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
   <si>
     <t>HISTORY</t>
   </si>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">Functional Tests </t>
-  </si>
-  <si>
-    <t>PhuocHVD
-VinhNH12</t>
   </si>
   <si>
     <t>Reference Test Plan</t>
@@ -252,9 +248,6 @@
     <t>aes_test_definetion_dec</t>
   </si>
   <si>
-    <t>PhuocHVD</t>
-  </si>
-  <si>
     <t>AES_DECRYPTION</t>
   </si>
   <si>
@@ -1194,7 +1187,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1230,13 +1223,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1244,7 +1237,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1278,7 +1271,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2159,10 +2152,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2437,17 +2426,17 @@
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="48.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="48.296875" customWidth="1"/>
+    <col min="4" max="4" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.7">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2446,7 @@
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
     </row>
-    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2465,7 +2454,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2475,7 +2464,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -2485,7 +2474,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -2495,7 +2484,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2503,7 +2492,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2523,7 +2512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -2531,7 +2520,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -2539,7 +2528,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -2547,7 +2536,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -2555,7 +2544,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -2563,7 +2552,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -2571,7 +2560,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
@@ -2579,7 +2568,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
@@ -2587,7 +2576,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
@@ -2595,7 +2584,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
@@ -2603,7 +2592,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -2611,7 +2600,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2619,7 +2608,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2627,7 +2616,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2635,7 +2624,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2643,7 +2632,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2651,7 +2640,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2659,7 +2648,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2667,7 +2656,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2675,7 +2664,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2683,7 +2672,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2691,7 +2680,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2699,7 +2688,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2707,7 +2696,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2715,7 +2704,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2723,7 +2712,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2731,7 +2720,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2739,7 +2728,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2747,7 +2736,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2755,7 +2744,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2763,7 +2752,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2771,7 +2760,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2779,7 +2768,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2787,7 +2776,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2795,7 +2784,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2803,7 +2792,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2811,7 +2800,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2819,7 +2808,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2827,7 +2816,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2835,7 +2824,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2862,27 +2851,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="34" customWidth="1"/>
+    <col min="3" max="3" width="29.796875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="34" customWidth="1"/>
     <col min="5" max="5" width="9" style="34" customWidth="1"/>
-    <col min="6" max="7" width="9.1796875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="36.7265625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="34"/>
-    <col min="11" max="11" width="30.453125" style="34" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="36"/>
-    <col min="13" max="16384" width="8.7265625" style="34"/>
+    <col min="6" max="7" width="9.19921875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="36.69921875" style="34" customWidth="1"/>
+    <col min="9" max="9" width="23.796875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" style="34"/>
+    <col min="11" max="11" width="30.5" style="34" customWidth="1"/>
+    <col min="12" max="12" width="8.69921875" style="36"/>
+    <col min="13" max="16384" width="8.69921875" style="34"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
@@ -2890,93 +2879,93 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="35" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="40" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="66" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="66" t="s">
+      <c r="C6" s="67"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="67"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="40" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="F10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="G10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="H10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="I10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="J10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="K10" s="41" t="s">
         <v>30</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>31</v>
       </c>
       <c r="L10" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -2990,81 +2979,81 @@
       <c r="K11" s="42"/>
       <c r="L11" s="43"/>
     </row>
-    <row r="12" spans="1:12" ht="123.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="123.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39">
         <v>1</v>
       </c>
       <c r="B12" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="39" t="s">
+      <c r="E12" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="H12" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="I12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="J12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>39</v>
-      </c>
       <c r="K12" s="46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L12" s="39"/>
     </row>
-    <row r="13" spans="1:12" ht="119.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="119.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39">
         <v>2</v>
       </c>
       <c r="B13" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="45" t="s">
+      <c r="I13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="J13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="47" t="s">
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="42" t="s">
         <v>43</v>
-      </c>
-      <c r="L13" s="39"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="42" t="s">
-        <v>44</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -3078,117 +3067,117 @@
       <c r="K14" s="42"/>
       <c r="L14" s="43"/>
     </row>
-    <row r="15" spans="1:12" ht="107.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="107.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39">
         <v>3</v>
       </c>
       <c r="B15" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="45" t="s">
+      <c r="I15" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="39" t="s">
-        <v>47</v>
-      </c>
       <c r="J15" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15" s="39"/>
     </row>
-    <row r="16" spans="1:12" ht="120.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="120.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39">
         <v>4</v>
       </c>
       <c r="B16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="E16" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="39" t="s">
+      <c r="H16" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="I16" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="39" t="s">
-        <v>52</v>
-      </c>
       <c r="J16" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16" s="39"/>
     </row>
-    <row r="17" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39">
         <v>5</v>
       </c>
       <c r="B17" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="45" t="s">
+      <c r="I17" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="J17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="42" t="s">
         <v>55</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="39"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="42" t="s">
-        <v>56</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -3202,197 +3191,197 @@
       <c r="K18" s="42"/>
       <c r="L18" s="43"/>
     </row>
-    <row r="19" spans="1:12" ht="109" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="109.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39">
         <v>6</v>
       </c>
       <c r="B19" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="49" t="s">
+      <c r="I19" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="39" t="s">
-        <v>59</v>
-      </c>
       <c r="J19" s="39" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K19" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L19" s="39"/>
     </row>
-    <row r="20" spans="1:12" ht="116.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="116.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39">
         <v>7</v>
       </c>
       <c r="B20" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>63</v>
-      </c>
       <c r="J20" s="39" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K20" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L20" s="39"/>
     </row>
-    <row r="21" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="106.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39">
         <v>8</v>
       </c>
       <c r="B21" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>66</v>
-      </c>
       <c r="J21" s="39" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K21" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L21" s="39"/>
     </row>
-    <row r="22" spans="1:12" ht="144" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="135" x14ac:dyDescent="0.35">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E23" s="51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H23" s="53"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E24" s="54"/>
       <c r="F24" s="55"/>
       <c r="G24" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E25" s="54"/>
       <c r="F25" s="55"/>
       <c r="G25" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" s="57"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E26" s="54"/>
       <c r="F26" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H26" s="60"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E27" s="54"/>
       <c r="F27" s="61" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="63"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E28" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="56"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E29" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="64" t="s">
         <v>69</v>
-      </c>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="E28" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="56"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="E29" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>71</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="57"/>
@@ -3417,15 +3406,15 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="14"/>
+    <col min="1" max="16384" width="8.69921875" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
@@ -3440,7 +3429,7 @@
       <c r="N5" s="69"/>
       <c r="O5" s="70"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="71"/>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -3455,7 +3444,7 @@
       <c r="N6" s="72"/>
       <c r="O6" s="73"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="71"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
@@ -3470,7 +3459,7 @@
       <c r="N7" s="72"/>
       <c r="O7" s="73"/>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="71"/>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
@@ -3485,7 +3474,7 @@
       <c r="N8" s="72"/>
       <c r="O8" s="73"/>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="71"/>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
@@ -3500,7 +3489,7 @@
       <c r="N9" s="72"/>
       <c r="O9" s="73"/>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="71"/>
       <c r="D10" s="72"/>
       <c r="E10" s="72"/>
@@ -3515,7 +3504,7 @@
       <c r="N10" s="72"/>
       <c r="O10" s="73"/>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="71"/>
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
@@ -3530,7 +3519,7 @@
       <c r="N11" s="72"/>
       <c r="O11" s="73"/>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="71"/>
       <c r="D12" s="72"/>
       <c r="E12" s="72"/>
@@ -3545,7 +3534,7 @@
       <c r="N12" s="72"/>
       <c r="O12" s="73"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="71"/>
       <c r="D13" s="72"/>
       <c r="E13" s="72"/>
@@ -3560,7 +3549,7 @@
       <c r="N13" s="72"/>
       <c r="O13" s="73"/>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="71"/>
       <c r="D14" s="72"/>
       <c r="E14" s="72"/>
@@ -3575,7 +3564,7 @@
       <c r="N14" s="72"/>
       <c r="O14" s="73"/>
     </row>
-    <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="74"/>
       <c r="D15" s="75"/>
       <c r="E15" s="75"/>
@@ -3602,24 +3591,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F86090-EE06-457C-9BD3-477442AABCF5}">
   <dimension ref="B7:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" customWidth="1"/>
-    <col min="14" max="14" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.296875" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="83" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="84"/>
       <c r="F7" s="84"/>
@@ -3632,13 +3621,13 @@
       <c r="M7" s="84"/>
       <c r="N7" s="85"/>
     </row>
-    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B8" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -3651,11 +3640,11 @@
       <c r="M8" s="22"/>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B9" s="79"/>
       <c r="C9" s="80"/>
       <c r="D9" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -3668,11 +3657,11 @@
       <c r="M9" s="22"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
       <c r="D10" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3685,11 +3674,11 @@
       <c r="M10" s="22"/>
       <c r="N10" s="19"/>
     </row>
-    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
       <c r="D11" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -3702,11 +3691,11 @@
       <c r="M11" s="22"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B12" s="79"/>
       <c r="C12" s="80"/>
       <c r="D12" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -3719,11 +3708,11 @@
       <c r="M12" s="22"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B13" s="79"/>
       <c r="C13" s="80"/>
       <c r="D13" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -3736,11 +3725,11 @@
       <c r="M13" s="22"/>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B14" s="79"/>
       <c r="C14" s="80"/>
       <c r="D14" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -3753,11 +3742,11 @@
       <c r="M14" s="22"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
       <c r="D15" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -3770,11 +3759,11 @@
       <c r="M15" s="22"/>
       <c r="N15" s="19"/>
     </row>
-    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B16" s="79"/>
       <c r="C16" s="80"/>
       <c r="D16" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -3787,11 +3776,11 @@
       <c r="M16" s="22"/>
       <c r="N16" s="19"/>
     </row>
-    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
       <c r="D17" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -3818,23 +3807,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C09F941-062E-4965-AF0A-28192A75FB80}">
   <dimension ref="B7:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="83" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="84"/>
       <c r="F7" s="84"/>
@@ -3847,13 +3836,13 @@
       <c r="M7" s="84"/>
       <c r="N7" s="85"/>
     </row>
-    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B8" s="77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -3866,11 +3855,11 @@
       <c r="M8" s="22"/>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B9" s="79"/>
       <c r="C9" s="80"/>
       <c r="D9" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -3883,11 +3872,11 @@
       <c r="M9" s="22"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
       <c r="D10" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3900,11 +3889,11 @@
       <c r="M10" s="22"/>
       <c r="N10" s="19"/>
     </row>
-    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
       <c r="D11" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -3917,11 +3906,11 @@
       <c r="M11" s="22"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B12" s="79"/>
       <c r="C12" s="80"/>
       <c r="D12" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -3934,11 +3923,11 @@
       <c r="M12" s="22"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B13" s="79"/>
       <c r="C13" s="80"/>
       <c r="D13" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -3951,11 +3940,11 @@
       <c r="M13" s="22"/>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B14" s="79"/>
       <c r="C14" s="80"/>
       <c r="D14" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -3968,11 +3957,11 @@
       <c r="M14" s="22"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
       <c r="D15" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -3985,11 +3974,11 @@
       <c r="M15" s="22"/>
       <c r="N15" s="19"/>
     </row>
-    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B16" s="79"/>
       <c r="C16" s="80"/>
       <c r="D16" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -4002,11 +3991,11 @@
       <c r="M16" s="22"/>
       <c r="N16" s="19"/>
     </row>
-    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
       <c r="D17" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -4033,23 +4022,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935AD659-F69B-49E4-8554-85BA010380AA}">
   <dimension ref="B7:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="83" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="84"/>
       <c r="F7" s="84"/>
@@ -4062,13 +4051,13 @@
       <c r="M7" s="84"/>
       <c r="N7" s="85"/>
     </row>
-    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B8" s="77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -4081,11 +4070,11 @@
       <c r="M8" s="22"/>
       <c r="N8" s="32"/>
     </row>
-    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B9" s="79"/>
       <c r="C9" s="80"/>
       <c r="D9" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -4098,11 +4087,11 @@
       <c r="M9" s="22"/>
       <c r="N9" s="32"/>
     </row>
-    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
       <c r="D10" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -4115,11 +4104,11 @@
       <c r="M10" s="22"/>
       <c r="N10" s="32"/>
     </row>
-    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
       <c r="D11" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -4132,11 +4121,11 @@
       <c r="M11" s="22"/>
       <c r="N11" s="32"/>
     </row>
-    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B12" s="79"/>
       <c r="C12" s="80"/>
       <c r="D12" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -4149,11 +4138,11 @@
       <c r="M12" s="22"/>
       <c r="N12" s="32"/>
     </row>
-    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B13" s="81"/>
       <c r="C13" s="82"/>
       <c r="D13" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -4166,7 +4155,7 @@
       <c r="M13" s="23"/>
       <c r="N13" s="33"/>
     </row>
-    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="24"/>
@@ -4180,7 +4169,7 @@
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
     </row>
-    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="24"/>
@@ -4194,7 +4183,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="24"/>
@@ -4208,7 +4197,7 @@
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="24"/>
@@ -4236,23 +4225,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACDF1C6-D7EB-4005-9D39-B97546A20218}">
   <dimension ref="B7:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="83" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="84"/>
       <c r="F7" s="84"/>
@@ -4265,13 +4254,13 @@
       <c r="M7" s="84"/>
       <c r="N7" s="85"/>
     </row>
-    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B8" s="77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -4284,11 +4273,11 @@
       <c r="M8" s="22"/>
       <c r="N8" s="32"/>
     </row>
-    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B9" s="79"/>
       <c r="C9" s="80"/>
       <c r="D9" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -4301,11 +4290,11 @@
       <c r="M9" s="22"/>
       <c r="N9" s="32"/>
     </row>
-    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
       <c r="D10" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -4318,11 +4307,11 @@
       <c r="M10" s="22"/>
       <c r="N10" s="32"/>
     </row>
-    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
       <c r="D11" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -4335,11 +4324,11 @@
       <c r="M11" s="22"/>
       <c r="N11" s="32"/>
     </row>
-    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B12" s="79"/>
       <c r="C12" s="80"/>
       <c r="D12" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -4352,11 +4341,11 @@
       <c r="M12" s="22"/>
       <c r="N12" s="32"/>
     </row>
-    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B13" s="81"/>
       <c r="C13" s="82"/>
       <c r="D13" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
